--- a/ExternalData/exceldata1.xlsx
+++ b/ExternalData/exceldata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15495" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15705" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
-  <si>
-    <t>admin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>Company Form Data</t>
+  </si>
+  <si>
+    <t>Compoany Name</t>
+  </si>
+  <si>
+    <t>Company Contact</t>
+  </si>
+  <si>
+    <t>Company Email</t>
+  </si>
+  <si>
+    <t>Comnpany Website</t>
+  </si>
+  <si>
+    <t>company@onpassive.com</t>
+  </si>
+  <si>
+    <t>www.onpassive.com</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>12-12/11, LOcation2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Street data</t>
+  </si>
+  <si>
+    <t>landmark value</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Shiftwave</t>
+  </si>
+  <si>
+    <t>9058811225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -32,13 +98,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,13 +130,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,35 +443,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>